--- a/forms/kanban_assy/assy_plan_xls.xlsx
+++ b/forms/kanban_assy/assy_plan_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>NO</t>
   </si>
@@ -35,97 +35,121 @@
     <t>REVISI</t>
   </si>
   <si>
-    <t>C01</t>
+    <t>G07NC</t>
   </si>
   <si>
     <t>LR03#1</t>
   </si>
   <si>
-    <t>2019-4-1</t>
+    <t>2020-9-1</t>
+  </si>
+  <si>
+    <t>C01NC</t>
   </si>
   <si>
     <t>LR03#2</t>
   </si>
   <si>
-    <t>G07</t>
+    <t>G073</t>
   </si>
   <si>
     <t>LR06#1</t>
   </si>
   <si>
+    <t>G08NC</t>
+  </si>
+  <si>
+    <t>LR06#2</t>
+  </si>
+  <si>
     <t>G08E</t>
   </si>
   <si>
-    <t>LR06#2</t>
-  </si>
-  <si>
     <t>LR06#3</t>
   </si>
   <si>
-    <t>G06</t>
-  </si>
-  <si>
     <t>LR06#4(T)</t>
   </si>
   <si>
     <t>LR06#6</t>
   </si>
   <si>
-    <t>G07NC</t>
-  </si>
-  <si>
-    <t>2019-4-10</t>
-  </si>
-  <si>
-    <t>2019-4-11</t>
-  </si>
-  <si>
-    <t>2019-4-12</t>
-  </si>
-  <si>
-    <t>2019-4-15</t>
-  </si>
-  <si>
-    <t>2019-4-16</t>
-  </si>
-  <si>
-    <t>2019-4-18</t>
-  </si>
-  <si>
-    <t>2019-4-2</t>
-  </si>
-  <si>
-    <t>2019-4-22</t>
-  </si>
-  <si>
-    <t>2019-4-23</t>
-  </si>
-  <si>
-    <t>2019-4-24</t>
-  </si>
-  <si>
-    <t>2019-4-25</t>
-  </si>
-  <si>
-    <t>2019-4-26</t>
-  </si>
-  <si>
-    <t>2019-4-29</t>
-  </si>
-  <si>
-    <t>2019-4-30</t>
-  </si>
-  <si>
-    <t>2019-4-4</t>
-  </si>
-  <si>
-    <t>2019-4-5</t>
-  </si>
-  <si>
-    <t>2019-4-8</t>
-  </si>
-  <si>
-    <t>2019-4-9</t>
+    <t>2020-9-10</t>
+  </si>
+  <si>
+    <t>2020-9-11</t>
+  </si>
+  <si>
+    <t>2020-9-12</t>
+  </si>
+  <si>
+    <t>2020-9-14</t>
+  </si>
+  <si>
+    <t>2020-9-15</t>
+  </si>
+  <si>
+    <t>2020-9-16</t>
+  </si>
+  <si>
+    <t>2020-9-17</t>
+  </si>
+  <si>
+    <t>2020-9-18</t>
+  </si>
+  <si>
+    <t>2020-9-19</t>
+  </si>
+  <si>
+    <t>2020-9-2</t>
+  </si>
+  <si>
+    <t>2020-9-21</t>
+  </si>
+  <si>
+    <t>2020-9-22</t>
+  </si>
+  <si>
+    <t>2020-9-23</t>
+  </si>
+  <si>
+    <t>2020-9-24</t>
+  </si>
+  <si>
+    <t>2020-9-25</t>
+  </si>
+  <si>
+    <t>2020-9-26</t>
+  </si>
+  <si>
+    <t>2020-9-28</t>
+  </si>
+  <si>
+    <t>2020-9-29</t>
+  </si>
+  <si>
+    <t>2020-9-3</t>
+  </si>
+  <si>
+    <t>2020-9-30</t>
+  </si>
+  <si>
+    <t>2020-9-4</t>
+  </si>
+  <si>
+    <t>2020-9-5</t>
+  </si>
+  <si>
+    <t>G06NC</t>
+  </si>
+  <si>
+    <t>2020-9-7</t>
+  </si>
+  <si>
+    <t>2020-9-8</t>
+  </si>
+  <si>
+    <t>2020-9-9</t>
   </si>
 </sst>
 </file>
@@ -511,10 +535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E129" sqref="E129"/>
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>221000</v>
+        <v>350000</v>
       </c>
       <c r="F2" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -572,19 +596,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>182000</v>
+        <v>199000</v>
       </c>
       <c r="F3" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -592,19 +616,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>202000</v>
+        <v>310000</v>
       </c>
       <c r="F4" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -612,19 +636,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>186000</v>
+        <v>170000</v>
       </c>
       <c r="F5" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -632,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -641,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>207000</v>
+        <v>30000</v>
       </c>
       <c r="F6" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -652,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -661,10 +685,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>212000</v>
+        <v>310000</v>
       </c>
       <c r="F7" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -672,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -681,10 +705,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>50000</v>
+        <v>362000</v>
       </c>
       <c r="F8" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -692,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5">
-        <v>230000</v>
+        <v>425000</v>
       </c>
       <c r="F9" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -712,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
@@ -721,10 +745,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="3">
-        <v>280000</v>
+        <v>350000</v>
       </c>
       <c r="F10" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -732,19 +756,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F11" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -752,19 +776,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="3">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F12" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -772,19 +796,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="5">
-        <v>139000</v>
+        <v>310000</v>
       </c>
       <c r="F13" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -792,19 +816,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="3">
-        <v>207000</v>
+        <v>362000</v>
       </c>
       <c r="F14" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -812,19 +836,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5">
-        <v>258000</v>
+        <v>425000</v>
       </c>
       <c r="F15" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -832,19 +856,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
-        <v>473000</v>
+        <v>342000</v>
       </c>
       <c r="F16" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -852,19 +876,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>331000</v>
+        <v>303000</v>
       </c>
       <c r="F17" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -872,19 +896,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="3">
-        <v>273000</v>
+        <v>303000</v>
       </c>
       <c r="F18" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -892,19 +916,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="5">
-        <v>273000</v>
+        <v>303000</v>
       </c>
       <c r="F19" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -912,19 +936,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="3">
-        <v>279000</v>
+        <v>353000</v>
       </c>
       <c r="F20" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -932,19 +956,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="5">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="F21" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -952,19 +976,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="3">
-        <v>318000</v>
+        <v>310000</v>
       </c>
       <c r="F22" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -972,19 +996,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F23" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -992,19 +1016,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3">
-        <v>323000</v>
+        <v>310000</v>
       </c>
       <c r="F24" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1012,19 +1036,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5">
-        <v>266000</v>
+        <v>362000</v>
       </c>
       <c r="F25" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1032,19 +1056,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3">
-        <v>266000</v>
+        <v>425000</v>
       </c>
       <c r="F26" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1052,19 +1076,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5">
-        <v>273000</v>
+        <v>350000</v>
       </c>
       <c r="F27" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1072,19 +1096,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F28" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1095,16 +1119,16 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5">
         <v>310000</v>
       </c>
       <c r="F29" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1112,19 +1136,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="3">
-        <v>462000</v>
+        <v>310000</v>
       </c>
       <c r="F30" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1132,19 +1156,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="5">
-        <v>300000</v>
+        <v>362000</v>
       </c>
       <c r="F31" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1155,16 +1179,16 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="3">
-        <v>182000</v>
+        <v>425000</v>
       </c>
       <c r="F32" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1172,19 +1196,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5">
-        <v>182000</v>
+        <v>350000</v>
       </c>
       <c r="F33" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1192,19 +1216,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3">
-        <v>169000</v>
+        <v>310000</v>
       </c>
       <c r="F34" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1218,13 +1242,13 @@
         <v>14</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="5">
-        <v>281000</v>
+        <v>310000</v>
       </c>
       <c r="F35" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1232,19 +1256,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3">
-        <v>212000</v>
+        <v>310000</v>
       </c>
       <c r="F36" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1252,19 +1276,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" s="5">
-        <v>315000</v>
+        <v>362000</v>
       </c>
       <c r="F37" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1272,19 +1296,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3">
-        <v>221000</v>
+        <v>425000</v>
       </c>
       <c r="F38" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1295,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="5">
-        <v>273000</v>
+        <v>350000</v>
       </c>
       <c r="F39" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1312,19 +1336,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="3">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F40" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1332,19 +1356,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5">
-        <v>279000</v>
+        <v>310000</v>
       </c>
       <c r="F41" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1352,19 +1376,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3">
         <v>310000</v>
       </c>
       <c r="F42" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1372,19 +1396,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="5">
-        <v>318000</v>
+        <v>362000</v>
       </c>
       <c r="F43" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1392,19 +1416,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3">
-        <v>473000</v>
+        <v>425000</v>
       </c>
       <c r="F44" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1412,19 +1436,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="F45" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1432,19 +1456,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="3">
-        <v>245000</v>
+        <v>310000</v>
       </c>
       <c r="F46" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1452,19 +1476,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="5">
-        <v>247000</v>
+        <v>310000</v>
       </c>
       <c r="F47" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1472,19 +1496,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" s="3">
-        <v>253000</v>
+        <v>310000</v>
       </c>
       <c r="F48" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1492,19 +1516,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5">
-        <v>281000</v>
+        <v>362000</v>
       </c>
       <c r="F49" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1512,19 +1536,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" s="3">
-        <v>285000</v>
+        <v>425000</v>
       </c>
       <c r="F50" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1532,19 +1556,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E51" s="5">
-        <v>450000</v>
+        <v>342000</v>
       </c>
       <c r="F51" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1552,19 +1576,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52" s="3">
-        <v>331000</v>
+        <v>303000</v>
       </c>
       <c r="F52" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1572,19 +1596,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E53" s="5">
-        <v>273000</v>
+        <v>303000</v>
       </c>
       <c r="F53" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1592,19 +1616,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54" s="3">
         <v>303000</v>
       </c>
       <c r="F54" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1612,19 +1636,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E55" s="5">
-        <v>279000</v>
+        <v>353000</v>
       </c>
       <c r="F55" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1635,16 +1659,16 @@
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56" s="3">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="F56" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1652,19 +1676,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5">
-        <v>318000</v>
+        <v>310000</v>
       </c>
       <c r="F57" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1672,19 +1696,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E58" s="3">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F58" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1695,16 +1719,16 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" s="5">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="F59" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1712,19 +1736,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60" s="3">
-        <v>202000</v>
+        <v>362000</v>
       </c>
       <c r="F60" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1732,19 +1756,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61" s="5">
-        <v>169000</v>
+        <v>425000</v>
       </c>
       <c r="F61" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1752,19 +1776,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E62" s="3">
-        <v>281000</v>
+        <v>350000</v>
       </c>
       <c r="F62" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1772,19 +1796,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E63" s="5">
-        <v>212000</v>
+        <v>199000</v>
       </c>
       <c r="F63" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1792,19 +1816,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E64" s="3">
-        <v>315000</v>
+        <v>310000</v>
       </c>
       <c r="F64" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1812,19 +1836,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E65" s="5">
-        <v>221000</v>
+        <v>310000</v>
       </c>
       <c r="F65" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1835,16 +1859,16 @@
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E66" s="3">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F66" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1852,19 +1876,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67" s="5">
-        <v>279000</v>
+        <v>362000</v>
       </c>
       <c r="F67" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1872,19 +1896,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E68" s="3">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F68" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1892,19 +1916,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E69" s="5">
-        <v>318000</v>
+        <v>350000</v>
       </c>
       <c r="F69" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1912,19 +1936,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E70" s="3">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F70" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1932,19 +1956,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" s="5">
-        <v>331000</v>
+        <v>310000</v>
       </c>
       <c r="F71" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1955,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E72" s="3">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F72" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1972,19 +1996,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" s="5">
-        <v>186000</v>
+        <v>362000</v>
       </c>
       <c r="F73" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1995,16 +2019,16 @@
         <v>6</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" s="3">
-        <v>207000</v>
+        <v>425000</v>
       </c>
       <c r="F74" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2012,19 +2036,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E75" s="5">
-        <v>318000</v>
+        <v>350000</v>
       </c>
       <c r="F75" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2032,19 +2056,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E76" s="3">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F76" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2052,19 +2076,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" s="5">
-        <v>331000</v>
+        <v>310000</v>
       </c>
       <c r="F77" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2075,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E78" s="3">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F78" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2092,19 +2116,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E79" s="5">
-        <v>279000</v>
+        <v>362000</v>
       </c>
       <c r="F79" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2115,16 +2139,16 @@
         <v>6</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E80" s="3">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F80" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2132,19 +2156,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E81" s="5">
-        <v>318000</v>
+        <v>350000</v>
       </c>
       <c r="F81" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2152,19 +2176,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E82" s="3">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F82" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2172,19 +2196,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" s="5">
-        <v>323000</v>
+        <v>310000</v>
       </c>
       <c r="F83" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2195,16 +2219,16 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E84" s="3">
-        <v>296000</v>
+        <v>310000</v>
       </c>
       <c r="F84" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2212,19 +2236,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E85" s="5">
-        <v>273000</v>
+        <v>362000</v>
       </c>
       <c r="F85" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2235,16 +2259,16 @@
         <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86" s="3">
-        <v>303000</v>
+        <v>425000</v>
       </c>
       <c r="F86" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2252,19 +2276,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E87" s="5">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="F87" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2272,19 +2296,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E88" s="3">
-        <v>462000</v>
+        <v>310000</v>
       </c>
       <c r="F88" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2292,19 +2316,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E89" s="5">
-        <v>300000</v>
+        <v>310000</v>
       </c>
       <c r="F89" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2315,16 +2339,16 @@
         <v>6</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" s="3">
-        <v>182000</v>
+        <v>310000</v>
       </c>
       <c r="F90" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2332,19 +2356,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E91" s="5">
-        <v>253000</v>
+        <v>362000</v>
       </c>
       <c r="F91" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2355,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" s="3">
-        <v>281000</v>
+        <v>425000</v>
       </c>
       <c r="F92" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2372,19 +2396,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E93" s="5">
-        <v>212000</v>
+        <v>342000</v>
       </c>
       <c r="F93" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2392,19 +2416,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E94" s="3">
-        <v>315000</v>
+        <v>303000</v>
       </c>
       <c r="F94" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2412,19 +2436,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E95" s="5">
-        <v>221000</v>
+        <v>303000</v>
       </c>
       <c r="F95" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2435,16 +2459,16 @@
         <v>6</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E96" s="3">
-        <v>273000</v>
+        <v>303000</v>
       </c>
       <c r="F96" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2452,19 +2476,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E97" s="5">
-        <v>279000</v>
+        <v>353000</v>
       </c>
       <c r="F97" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2475,16 +2499,16 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E98" s="3">
-        <v>310000</v>
+        <v>415000</v>
       </c>
       <c r="F98" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2492,19 +2516,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E99" s="5">
-        <v>318000</v>
+        <v>310000</v>
       </c>
       <c r="F99" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2512,19 +2536,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E100" s="3">
-        <v>473000</v>
+        <v>310000</v>
       </c>
       <c r="F100" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2535,16 +2559,16 @@
         <v>6</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E101" s="5">
-        <v>50000</v>
+        <v>310000</v>
       </c>
       <c r="F101" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2552,19 +2576,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E102" s="3">
-        <v>200000</v>
+        <v>362000</v>
       </c>
       <c r="F102" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2575,16 +2599,16 @@
         <v>6</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E103" s="5">
-        <v>247000</v>
+        <v>425000</v>
       </c>
       <c r="F103" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2592,19 +2616,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E104" s="3">
-        <v>270000</v>
+        <v>350000</v>
       </c>
       <c r="F104" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2612,19 +2636,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E105" s="5">
-        <v>253000</v>
+        <v>310000</v>
       </c>
       <c r="F105" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2632,19 +2656,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E106" s="3">
-        <v>281000</v>
+        <v>310000</v>
       </c>
       <c r="F106" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2652,19 +2676,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E107" s="5">
-        <v>285000</v>
+        <v>310000</v>
       </c>
       <c r="F107" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2672,19 +2696,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E108" s="3">
-        <v>450000</v>
+        <v>362000</v>
       </c>
       <c r="F108" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2695,16 +2719,16 @@
         <v>6</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E109" s="5">
-        <v>323000</v>
+        <v>425000</v>
       </c>
       <c r="F109" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2712,19 +2736,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E110" s="3">
-        <v>266000</v>
+        <v>350000</v>
       </c>
       <c r="F110" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2732,19 +2756,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E111" s="5">
-        <v>296000</v>
+        <v>310000</v>
       </c>
       <c r="F111" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2752,19 +2776,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E112" s="3">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F112" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2775,16 +2799,16 @@
         <v>6</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E113" s="5">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F113" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2792,19 +2816,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E114" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F114" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2812,19 +2836,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E115" s="5">
-        <v>462000</v>
+        <v>425000</v>
       </c>
       <c r="F115" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2838,13 +2862,13 @@
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E116" s="3">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="F116" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2852,19 +2876,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E117" s="5">
-        <v>182000</v>
+        <v>199000</v>
       </c>
       <c r="F117" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2872,19 +2896,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D118" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E118" s="3">
-        <v>182000</v>
+        <v>310000</v>
       </c>
       <c r="F118" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2892,19 +2916,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E119" s="5">
-        <v>253000</v>
+        <v>310000</v>
       </c>
       <c r="F119" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2912,19 +2936,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E120" s="3">
-        <v>135000</v>
+        <v>310000</v>
       </c>
       <c r="F120" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2932,19 +2956,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E121" s="5">
-        <v>200000</v>
+        <v>362000</v>
       </c>
       <c r="F121" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2952,19 +2976,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E122" s="3">
-        <v>315000</v>
+        <v>425000</v>
       </c>
       <c r="F122" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2972,19 +2996,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E123" s="5">
-        <v>221000</v>
+        <v>350000</v>
       </c>
       <c r="F123" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2992,19 +3016,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E124" s="3">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F124" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3012,19 +3036,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E125" s="5">
-        <v>273000</v>
+        <v>310000</v>
       </c>
       <c r="F125" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3032,19 +3056,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E126" s="3">
-        <v>232000</v>
+        <v>310000</v>
       </c>
       <c r="F126" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3052,19 +3076,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E127" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F127" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3072,19 +3096,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E128" s="3">
-        <v>318000</v>
+        <v>425000</v>
       </c>
       <c r="F128" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3092,19 +3116,599 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="5">
+        <v>342000</v>
+      </c>
+      <c r="F129" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="D130" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F130" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="5">
+        <v>303000</v>
+      </c>
+      <c r="F131" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="3">
+        <v>303000</v>
+      </c>
+      <c r="F132" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="5">
+        <v>303000</v>
+      </c>
+      <c r="F133" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E129" s="5">
-        <v>473000</v>
-      </c>
-      <c r="F129" s="4">
-        <v>11</v>
+      <c r="D134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="3">
+        <v>353000</v>
+      </c>
+      <c r="F134" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="5">
+        <v>415000</v>
+      </c>
+      <c r="F135" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F136" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="5">
+        <v>310000</v>
+      </c>
+      <c r="F137" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F138" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E139" s="5">
+        <v>362000</v>
+      </c>
+      <c r="F139" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E140" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F140" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="5">
+        <v>350000</v>
+      </c>
+      <c r="F141" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F142" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" s="5">
+        <v>310000</v>
+      </c>
+      <c r="F143" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F144" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145" s="5">
+        <v>362000</v>
+      </c>
+      <c r="F145" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F146" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="5">
+        <v>350000</v>
+      </c>
+      <c r="F147" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F148" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="5">
+        <v>310000</v>
+      </c>
+      <c r="F149" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F150" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="5">
+        <v>362000</v>
+      </c>
+      <c r="F151" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E152" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F152" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" s="5">
+        <v>350000</v>
+      </c>
+      <c r="F153" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F154" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="5">
+        <v>310000</v>
+      </c>
+      <c r="F155" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F156" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="5">
+        <v>362000</v>
+      </c>
+      <c r="F157" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="3">
+        <v>425000</v>
+      </c>
+      <c r="F158" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/forms/kanban_assy/assy_plan_xls.xlsx
+++ b/forms/kanban_assy/assy_plan_xls.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>NO</t>
   </si>
@@ -44,25 +44,22 @@
     <t>2020-9-1</t>
   </si>
   <si>
+    <t>G073</t>
+  </si>
+  <si>
+    <t>LR06#1</t>
+  </si>
+  <si>
+    <t>G08NC</t>
+  </si>
+  <si>
+    <t>LR06#2</t>
+  </si>
+  <si>
+    <t>G08E</t>
+  </si>
+  <si>
     <t>C01NC</t>
-  </si>
-  <si>
-    <t>LR03#2</t>
-  </si>
-  <si>
-    <t>G073</t>
-  </si>
-  <si>
-    <t>LR06#1</t>
-  </si>
-  <si>
-    <t>G08NC</t>
-  </si>
-  <si>
-    <t>LR06#2</t>
-  </si>
-  <si>
-    <t>G08E</t>
   </si>
   <si>
     <t>LR06#3</t>
@@ -535,10 +532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E158" sqref="E158"/>
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -588,7 +585,7 @@
         <v>350000</v>
       </c>
       <c r="F2" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -605,10 +602,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>199000</v>
+        <v>310000</v>
       </c>
       <c r="F3" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -625,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>310000</v>
+        <v>170000</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -639,16 +636,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>170000</v>
+        <v>30000</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -656,19 +653,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>30000</v>
+        <v>310000</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -676,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -685,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -696,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -705,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -719,16 +716,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="5">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F9" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -736,19 +733,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -756,19 +753,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>310000</v>
       </c>
       <c r="F11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -776,19 +773,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
         <v>310000</v>
       </c>
       <c r="F12" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -802,13 +799,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F13" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -816,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F14" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -839,16 +836,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5">
-        <v>425000</v>
+        <v>342000</v>
       </c>
       <c r="F15" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -856,19 +853,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3">
-        <v>342000</v>
+        <v>303000</v>
       </c>
       <c r="F16" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -876,19 +873,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="5">
         <v>303000</v>
       </c>
       <c r="F17" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -896,19 +893,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3">
         <v>303000</v>
       </c>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -922,13 +919,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5">
-        <v>303000</v>
+        <v>353000</v>
       </c>
       <c r="F19" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -936,19 +933,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
-        <v>353000</v>
+        <v>415000</v>
       </c>
       <c r="F20" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -956,19 +953,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="5">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="F21" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -976,19 +973,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3">
         <v>310000</v>
       </c>
       <c r="F22" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -996,19 +993,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5">
         <v>310000</v>
       </c>
       <c r="F23" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1022,13 +1019,13 @@
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F24" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1036,19 +1033,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F25" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1059,16 +1056,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1076,19 +1073,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F27" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1096,19 +1093,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3">
         <v>310000</v>
       </c>
       <c r="F28" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1116,19 +1113,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="5">
         <v>310000</v>
       </c>
       <c r="F29" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1142,13 +1139,13 @@
         <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F30" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1156,19 +1153,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F31" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1179,16 +1176,16 @@
         <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F32" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1196,19 +1193,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F33" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1216,19 +1213,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="3">
         <v>310000</v>
       </c>
       <c r="F34" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1236,19 +1233,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5">
         <v>310000</v>
       </c>
       <c r="F35" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1262,13 +1259,13 @@
         <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F36" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1276,19 +1273,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F37" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1299,16 +1296,16 @@
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F38" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1316,19 +1313,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F39" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1336,19 +1333,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="3">
         <v>310000</v>
       </c>
       <c r="F40" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1356,19 +1353,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="5">
         <v>310000</v>
       </c>
       <c r="F41" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1382,13 +1379,13 @@
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F42" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1396,19 +1393,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F43" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1416,19 +1413,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F44" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1439,16 +1436,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F45" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1456,19 +1453,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="3">
         <v>310000</v>
       </c>
       <c r="F46" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1476,19 +1473,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="5">
         <v>310000</v>
       </c>
       <c r="F47" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1502,13 +1499,13 @@
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F48" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1516,19 +1513,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F49" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1536,19 +1533,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="3">
-        <v>425000</v>
+        <v>342000</v>
       </c>
       <c r="F50" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1559,16 +1556,16 @@
         <v>9</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51" s="5">
-        <v>342000</v>
+        <v>303000</v>
       </c>
       <c r="F51" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1576,19 +1573,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" s="3">
         <v>303000</v>
       </c>
       <c r="F52" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1596,19 +1593,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5">
         <v>303000</v>
       </c>
       <c r="F53" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1622,13 +1619,13 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" s="3">
-        <v>303000</v>
+        <v>353000</v>
       </c>
       <c r="F54" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1636,19 +1633,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5">
-        <v>353000</v>
+        <v>415000</v>
       </c>
       <c r="F55" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1656,19 +1653,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="3">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="F56" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1676,19 +1673,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="5">
         <v>310000</v>
       </c>
       <c r="F57" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1696,19 +1693,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="3">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="F58" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1719,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="5">
-        <v>310000</v>
+        <v>100000</v>
       </c>
       <c r="F59" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1736,19 +1733,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" s="3">
         <v>362000</v>
       </c>
       <c r="F60" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1759,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="5">
         <v>425000</v>
       </c>
       <c r="F61" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1782,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62" s="3">
         <v>350000</v>
       </c>
       <c r="F62" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1802,13 +1799,13 @@
         <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E63" s="5">
-        <v>199000</v>
+        <v>310000</v>
       </c>
       <c r="F63" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1816,19 +1813,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" s="3">
         <v>310000</v>
       </c>
       <c r="F64" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1836,19 +1833,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65" s="5">
         <v>310000</v>
       </c>
       <c r="F65" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1856,19 +1853,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E66" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F66" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1876,19 +1873,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F67" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1896,19 +1893,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F68" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1919,16 +1916,16 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E69" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F69" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1936,19 +1933,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="3">
         <v>310000</v>
       </c>
       <c r="F70" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1956,19 +1953,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="5">
         <v>310000</v>
       </c>
       <c r="F71" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1976,19 +1973,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F72" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1996,19 +1993,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E73" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F73" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2016,19 +2013,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E74" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F74" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2039,16 +2036,16 @@
         <v>9</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F75" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2056,19 +2053,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76" s="3">
         <v>310000</v>
       </c>
       <c r="F76" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2076,19 +2073,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="5">
         <v>310000</v>
       </c>
       <c r="F77" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2096,19 +2093,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F78" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2116,19 +2113,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E79" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F79" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2136,19 +2133,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E80" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F80" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2159,16 +2156,16 @@
         <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E81" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F81" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2176,19 +2173,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E82" s="3">
         <v>310000</v>
       </c>
       <c r="F82" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2196,19 +2193,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" s="5">
         <v>310000</v>
       </c>
       <c r="F83" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2216,19 +2213,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F84" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2236,19 +2233,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E85" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F85" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2256,19 +2253,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E86" s="3">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F86" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2279,16 +2276,16 @@
         <v>9</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F87" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2296,19 +2293,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E88" s="3">
         <v>310000</v>
       </c>
       <c r="F88" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2316,19 +2313,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E89" s="5">
         <v>310000</v>
       </c>
       <c r="F89" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2336,19 +2333,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E90" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F90" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2356,19 +2353,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E91" s="5">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F91" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2376,19 +2373,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E92" s="3">
-        <v>425000</v>
+        <v>342000</v>
       </c>
       <c r="F92" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2399,16 +2396,16 @@
         <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93" s="5">
-        <v>342000</v>
+        <v>303000</v>
       </c>
       <c r="F93" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2416,19 +2413,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94" s="3">
         <v>303000</v>
       </c>
       <c r="F94" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2436,19 +2433,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" s="5">
         <v>303000</v>
       </c>
       <c r="F95" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2456,19 +2453,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" s="3">
-        <v>303000</v>
+        <v>353000</v>
       </c>
       <c r="F96" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2476,19 +2473,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" s="5">
-        <v>353000</v>
+        <v>415000</v>
       </c>
       <c r="F97" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2496,19 +2493,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E98" s="3">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="F98" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2516,19 +2513,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E99" s="5">
         <v>310000</v>
       </c>
       <c r="F99" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2536,19 +2533,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E100" s="3">
         <v>310000</v>
       </c>
       <c r="F100" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2556,19 +2553,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E101" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F101" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2576,19 +2573,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E102" s="3">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F102" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2596,19 +2593,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E103" s="5">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F103" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2619,16 +2616,16 @@
         <v>9</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E104" s="3">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F104" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2636,19 +2633,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E105" s="5">
         <v>310000</v>
       </c>
       <c r="F105" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2656,19 +2653,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D106" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E106" s="3">
         <v>310000</v>
       </c>
       <c r="F106" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2676,19 +2673,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E107" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F107" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2696,19 +2693,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E108" s="3">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F108" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2716,19 +2713,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="5">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F109" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2739,16 +2736,16 @@
         <v>9</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E110" s="3">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F110" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2756,19 +2753,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E111" s="5">
         <v>310000</v>
       </c>
       <c r="F111" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2776,19 +2773,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D112" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112" s="3">
         <v>310000</v>
       </c>
       <c r="F112" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2796,19 +2793,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E113" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F113" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2816,19 +2813,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" s="3">
-        <v>362000</v>
+        <v>425000</v>
       </c>
       <c r="F114" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2839,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E115" s="5">
-        <v>425000</v>
+        <v>350000</v>
       </c>
       <c r="F115" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2856,19 +2853,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="3">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F116" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2876,19 +2873,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E117" s="5">
-        <v>199000</v>
+        <v>310000</v>
       </c>
       <c r="F117" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2896,19 +2893,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="3">
         <v>310000</v>
       </c>
       <c r="F118" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2916,19 +2913,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E119" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F119" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2939,16 +2936,16 @@
         <v>6</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="3">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F120" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2956,19 +2953,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E121" s="5">
-        <v>362000</v>
+        <v>350000</v>
       </c>
       <c r="F121" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2976,19 +2973,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E122" s="3">
-        <v>425000</v>
+        <v>310000</v>
       </c>
       <c r="F122" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2996,19 +2993,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E123" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F123" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3016,19 +3013,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E124" s="3">
         <v>310000</v>
       </c>
       <c r="F124" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3036,19 +3033,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E125" s="5">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F125" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3059,16 +3056,16 @@
         <v>6</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E126" s="3">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F126" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3076,19 +3073,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E127" s="5">
-        <v>362000</v>
+        <v>342000</v>
       </c>
       <c r="F127" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3096,19 +3093,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E128" s="3">
-        <v>425000</v>
+        <v>303000</v>
       </c>
       <c r="F128" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3116,19 +3113,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E129" s="5">
-        <v>342000</v>
+        <v>303000</v>
       </c>
       <c r="F129" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3136,19 +3133,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E130" s="3">
-        <v>190000</v>
+        <v>303000</v>
       </c>
       <c r="F130" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3156,19 +3153,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E131" s="5">
-        <v>303000</v>
+        <v>353000</v>
       </c>
       <c r="F131" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3176,19 +3173,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E132" s="3">
-        <v>303000</v>
+        <v>415000</v>
       </c>
       <c r="F132" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3196,19 +3193,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E133" s="5">
-        <v>303000</v>
+        <v>310000</v>
       </c>
       <c r="F133" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3216,19 +3213,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E134" s="3">
-        <v>353000</v>
+        <v>310000</v>
       </c>
       <c r="F134" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3236,19 +3233,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E135" s="5">
-        <v>415000</v>
+        <v>310000</v>
       </c>
       <c r="F135" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3256,19 +3253,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E136" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F136" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3276,19 +3273,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E137" s="5">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F137" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3296,19 +3293,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E138" s="3">
-        <v>310000</v>
+        <v>200000</v>
       </c>
       <c r="F138" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3316,19 +3313,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E139" s="5">
-        <v>362000</v>
+        <v>310000</v>
       </c>
       <c r="F139" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3336,19 +3333,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E140" s="3">
-        <v>425000</v>
+        <v>310000</v>
       </c>
       <c r="F140" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3356,19 +3353,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="E141" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F141" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3376,19 +3373,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E142" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F142" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3396,19 +3393,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E143" s="5">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F143" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3419,16 +3416,16 @@
         <v>6</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E144" s="3">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="F144" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3436,19 +3433,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E145" s="5">
-        <v>362000</v>
+        <v>310000</v>
       </c>
       <c r="F145" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3456,19 +3453,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E146" s="3">
-        <v>425000</v>
+        <v>310000</v>
       </c>
       <c r="F146" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3476,19 +3473,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E147" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F147" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3496,19 +3493,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E148" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F148" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3516,19 +3513,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E149" s="5">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F149" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3536,19 +3533,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E150" s="3">
-        <v>310000</v>
+        <v>350000</v>
       </c>
       <c r="F150" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3556,19 +3553,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E151" s="5">
-        <v>362000</v>
+        <v>310000</v>
       </c>
       <c r="F151" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3576,19 +3573,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E152" s="3">
-        <v>425000</v>
+        <v>310000</v>
       </c>
       <c r="F152" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3596,19 +3593,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E153" s="5">
-        <v>350000</v>
+        <v>310000</v>
       </c>
       <c r="F153" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3616,19 +3613,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E154" s="3">
-        <v>310000</v>
+        <v>362000</v>
       </c>
       <c r="F154" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3636,79 +3633,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E155" s="5">
-        <v>310000</v>
+        <v>425000</v>
       </c>
       <c r="F155" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E156" s="3">
-        <v>310000</v>
-      </c>
-      <c r="F156" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="4">
-        <v>156</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E157" s="5">
-        <v>362000</v>
-      </c>
-      <c r="F157" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E158" s="3">
-        <v>425000</v>
-      </c>
-      <c r="F158" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
